--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gip-Gipr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gip-Gipr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Gipr</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.3260275</v>
+      </c>
+      <c r="H2">
+        <v>0.6520550000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.4722113996121241</v>
+      </c>
+      <c r="J2">
+        <v>0.4126724043544658</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.0278035</v>
-      </c>
-      <c r="H2">
-        <v>0.055607</v>
-      </c>
-      <c r="I2">
-        <v>0.07089058472270739</v>
-      </c>
-      <c r="J2">
-        <v>0.05653237850372753</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.5518274999999999</v>
+        <v>0.205225</v>
       </c>
       <c r="N2">
-        <v>1.103655</v>
+        <v>0.41045</v>
       </c>
       <c r="O2">
-        <v>0.6284874684614024</v>
+        <v>0.3926590127895196</v>
       </c>
       <c r="P2">
-        <v>0.5722256269229214</v>
+        <v>0.3926590127895196</v>
       </c>
       <c r="Q2">
-        <v>0.01534273589625</v>
+        <v>0.0669089936875</v>
       </c>
       <c r="R2">
-        <v>0.061370943585</v>
+        <v>0.26763597475</v>
       </c>
       <c r="S2">
-        <v>0.04455384413012293</v>
+        <v>0.185418061999654</v>
       </c>
       <c r="T2">
-        <v>0.03234927573073937</v>
+        <v>0.162039538899302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +590,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0278035</v>
+        <v>0.3260275</v>
       </c>
       <c r="H3">
-        <v>0.055607</v>
+        <v>0.6520550000000001</v>
       </c>
       <c r="I3">
-        <v>0.07089058472270739</v>
+        <v>0.4722113996121241</v>
       </c>
       <c r="J3">
-        <v>0.05653237850372753</v>
+        <v>0.4126724043544658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1535405</v>
+        <v>0.3174295</v>
       </c>
       <c r="N3">
-        <v>0.307081</v>
+        <v>0.6348590000000001</v>
       </c>
       <c r="O3">
-        <v>0.1748703719029913</v>
+        <v>0.6073409872104804</v>
       </c>
       <c r="P3">
-        <v>0.1592160754412544</v>
+        <v>0.6073409872104804</v>
       </c>
       <c r="Q3">
-        <v>0.00426896329175</v>
+        <v>0.10349074631125</v>
       </c>
       <c r="R3">
-        <v>0.017075853167</v>
+        <v>0.4139629852450001</v>
       </c>
       <c r="S3">
-        <v>0.01239666291488036</v>
+        <v>0.2867933376124701</v>
       </c>
       <c r="T3">
-        <v>0.009000863440723032</v>
+        <v>0.2506328654551638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.199225</v>
+      </c>
+      <c r="H4">
+        <v>0.597675</v>
+      </c>
+      <c r="I4">
+        <v>0.2885533155568945</v>
+      </c>
+      <c r="J4">
+        <v>0.3782564036355144</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.5</v>
       </c>
-      <c r="G4">
-        <v>0.0278035</v>
-      </c>
-      <c r="H4">
-        <v>0.055607</v>
-      </c>
-      <c r="I4">
-        <v>0.07089058472270739</v>
-      </c>
-      <c r="J4">
-        <v>0.05653237850372753</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.1726566666666667</v>
+        <v>0.205225</v>
       </c>
       <c r="N4">
-        <v>0.5179699999999999</v>
+        <v>0.41045</v>
       </c>
       <c r="O4">
-        <v>0.1966421596356063</v>
+        <v>0.3926590127895196</v>
       </c>
       <c r="P4">
-        <v>0.2685582976358242</v>
+        <v>0.3926590127895196</v>
       </c>
       <c r="Q4">
-        <v>0.004800459631666667</v>
+        <v>0.04088595062499999</v>
       </c>
       <c r="R4">
-        <v>0.02880275779</v>
+        <v>0.24531570375</v>
       </c>
       <c r="S4">
-        <v>0.0139400776777041</v>
+        <v>0.1133030600237129</v>
       </c>
       <c r="T4">
-        <v>0.01518223933226513</v>
+        <v>0.1485257860328351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +726,10 @@
         <v>0.597675</v>
       </c>
       <c r="I5">
-        <v>0.5079639880368074</v>
+        <v>0.2885533155568945</v>
       </c>
       <c r="J5">
-        <v>0.6076211506144072</v>
+        <v>0.3782564036355144</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,33 +738,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5518274999999999</v>
+        <v>0.3174295</v>
       </c>
       <c r="N5">
-        <v>1.103655</v>
+        <v>0.6348590000000001</v>
       </c>
       <c r="O5">
-        <v>0.6284874684614024</v>
+        <v>0.6073409872104804</v>
       </c>
       <c r="P5">
-        <v>0.5722256269229214</v>
+        <v>0.6073409872104804</v>
       </c>
       <c r="Q5">
-        <v>0.1099378336875</v>
+        <v>0.0632398921375</v>
       </c>
       <c r="R5">
-        <v>0.6596270021249998</v>
+        <v>0.379439352825</v>
       </c>
       <c r="S5">
-        <v>0.3192490009108112</v>
+        <v>0.1752502555331815</v>
       </c>
       <c r="T5">
-        <v>0.3476963938419561</v>
+        <v>0.2297306176026792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,25 +773,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.199225</v>
+        <v>0.1651745</v>
       </c>
       <c r="H6">
-        <v>0.597675</v>
+        <v>0.330349</v>
       </c>
       <c r="I6">
-        <v>0.5079639880368074</v>
+        <v>0.2392352848309814</v>
       </c>
       <c r="J6">
-        <v>0.6076211506144072</v>
+        <v>0.2090711920100198</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,33 +800,33 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.1535405</v>
+        <v>0.205225</v>
       </c>
       <c r="N6">
-        <v>0.307081</v>
+        <v>0.41045</v>
       </c>
       <c r="O6">
-        <v>0.1748703719029913</v>
+        <v>0.3926590127895196</v>
       </c>
       <c r="P6">
-        <v>0.1592160754412544</v>
+        <v>0.3926590127895196</v>
       </c>
       <c r="Q6">
-        <v>0.0305891061125</v>
+        <v>0.0338979367625</v>
       </c>
       <c r="R6">
-        <v>0.183534636675</v>
+        <v>0.13559174705</v>
       </c>
       <c r="S6">
-        <v>0.08882785150132316</v>
+        <v>0.09393789076615271</v>
       </c>
       <c r="T6">
-        <v>0.09674305495592529</v>
+        <v>0.08209368785738247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,241 +835,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.199225</v>
+        <v>0.1651745</v>
       </c>
       <c r="H7">
-        <v>0.597675</v>
+        <v>0.330349</v>
       </c>
       <c r="I7">
-        <v>0.5079639880368074</v>
+        <v>0.2392352848309814</v>
       </c>
       <c r="J7">
-        <v>0.6076211506144072</v>
+        <v>0.2090711920100198</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1726566666666667</v>
+        <v>0.3174295</v>
       </c>
       <c r="N7">
-        <v>0.5179699999999999</v>
+        <v>0.6348590000000001</v>
       </c>
       <c r="O7">
-        <v>0.1966421596356063</v>
+        <v>0.6073409872104804</v>
       </c>
       <c r="P7">
-        <v>0.2685582976358242</v>
+        <v>0.6073409872104804</v>
       </c>
       <c r="Q7">
-        <v>0.03439752441666666</v>
+        <v>0.05243125894775</v>
       </c>
       <c r="R7">
-        <v>0.3095777197499999</v>
+        <v>0.209725035791</v>
       </c>
       <c r="S7">
-        <v>0.09988713562467309</v>
+        <v>0.1452973940648287</v>
       </c>
       <c r="T7">
-        <v>0.163181701816526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.1651745</v>
-      </c>
-      <c r="H8">
-        <v>0.330349</v>
-      </c>
-      <c r="I8">
-        <v>0.4211454272404852</v>
-      </c>
-      <c r="J8">
-        <v>0.3358464708818653</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.5518274999999999</v>
-      </c>
-      <c r="N8">
-        <v>1.103655</v>
-      </c>
-      <c r="O8">
-        <v>0.6284874684614024</v>
-      </c>
-      <c r="P8">
-        <v>0.5722256269229214</v>
-      </c>
-      <c r="Q8">
-        <v>0.09114783139874999</v>
-      </c>
-      <c r="R8">
-        <v>0.364591325595</v>
-      </c>
-      <c r="S8">
-        <v>0.2646846234204683</v>
-      </c>
-      <c r="T8">
-        <v>0.192179957350226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.1651745</v>
-      </c>
-      <c r="H9">
-        <v>0.330349</v>
-      </c>
-      <c r="I9">
-        <v>0.4211454272404852</v>
-      </c>
-      <c r="J9">
-        <v>0.3358464708818653</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="M9">
-        <v>0.1535405</v>
-      </c>
-      <c r="N9">
-        <v>0.307081</v>
-      </c>
-      <c r="O9">
-        <v>0.1748703719029913</v>
-      </c>
-      <c r="P9">
-        <v>0.1592160754412544</v>
-      </c>
-      <c r="Q9">
-        <v>0.02536097531725</v>
-      </c>
-      <c r="R9">
-        <v>0.101443901269</v>
-      </c>
-      <c r="S9">
-        <v>0.07364585748678783</v>
-      </c>
-      <c r="T9">
-        <v>0.05347215704460612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.1651745</v>
-      </c>
-      <c r="H10">
-        <v>0.330349</v>
-      </c>
-      <c r="I10">
-        <v>0.4211454272404852</v>
-      </c>
-      <c r="J10">
-        <v>0.3358464708818653</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.1726566666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.5179699999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.1966421596356063</v>
-      </c>
-      <c r="P10">
-        <v>0.2685582976358242</v>
-      </c>
-      <c r="Q10">
-        <v>0.02851847858833333</v>
-      </c>
-      <c r="R10">
-        <v>0.17111087153</v>
-      </c>
-      <c r="S10">
-        <v>0.08281494633322911</v>
-      </c>
-      <c r="T10">
-        <v>0.09019435648703314</v>
+        <v>0.1269775041526373</v>
       </c>
     </row>
   </sheetData>
